--- a/biology/Botanique/Cuisine_des_fleurs/Cuisine_des_fleurs.xlsx
+++ b/biology/Botanique/Cuisine_des_fleurs/Cuisine_des_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La cuisine des fleurs est une forme d'art culinaire-gastronomique, qui intègre les fleurs comestibles fraîches ou séchées, pour la saveur et l'esthétique d'une préparation culinaire.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cuisine des fleurs remonte probablement aux origines de l'histoire de l'art culinaire avec les cueillettes des plantes des chasseurs-cueilleurs de la Préhistoire, avec entre autres les tisanes, les infusions, les thés, les potions, les fermentations, les décoctions, les macérations, les confits de fleurs...
 À l'image des plantes et des champignons, les fleurs fraîches ou séchées, cultivées ou sauvages, doivent être impérativement sélectionnées parmi les fleurs comestibles (non toxiques), les plus écologiques possibles, sans herbicide, pesticide, ou insecticide, et exemptes de maladies telle que l'échinococcose entre autres... Elles doivent être utilisées ou cuisinées de façon adaptées...
@@ -527,44 +541,116 @@
 			Salade de grande capucine au curry
 			Salade de fleur et de feuille de grande capucine
 			Croque-monsieur, mûres, et violette
-Quelques fleurs comestibles
-Anis étoilé, agastache, acacia, ail cultivé, artichaut, ænothère, æillet de poète de poète, bégonia, brocoli, bourrache officinale, chou, clou de girofle, chrysanthème, camélia,cerisier, bleuet, coquelicot, cosmos, cosmos bipinnatus, grande capucine, courgette, courge, citronnier, capucine, ciboulette, dahlia, hémérocalle, hysope, jasmin, luzerne cultivée, lavande, marguerite, moutarde noire, menthe, mélisse officinale, magnolia à grandes fleurs, navet, oranger, origan, pâquerette, pavot, pavot de Californie, petit pois, rose, rose trémière, rose d'Inde, romarin, rave, soucis, souci officinal, sauge, boutons de tournesol, tulipe, taraxacum, tilleul, thym, viola ×wittrockiana, violette / pensée, verveine ...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cuisine_des_fleurs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuisine_des_fleurs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Quelques fleurs comestibles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anis étoilé, agastache, acacia, ail cultivé, artichaut, ænothère, æillet de poète de poète, bégonia, brocoli, bourrache officinale, chou, clou de girofle, chrysanthème, camélia,cerisier, bleuet, coquelicot, cosmos, cosmos bipinnatus, grande capucine, courgette, courge, citronnier, capucine, ciboulette, dahlia, hémérocalle, hysope, jasmin, luzerne cultivée, lavande, marguerite, moutarde noire, menthe, mélisse officinale, magnolia à grandes fleurs, navet, oranger, origan, pâquerette, pavot, pavot de Californie, petit pois, rose, rose trémière, rose d'Inde, romarin, rave, soucis, souci officinal, sauge, boutons de tournesol, tulipe, taraxacum, tilleul, thym, viola ×wittrockiana, violette / pensée, verveine ...
 			Carpaccio de betterave aux fleurs
 			Cuisine végétalienne et capucine
 			Fleurs de courgette farcies
 			Fleurs de potiron farcies
 			Beignets de fleurs de courgette
-Quelques fleurs toxiques interdites à la consommation
-Arnica, arum, chèvrefeuille, colchique, datura, digitale, euphorbe, genêt, glycine, laurier-rose, marronnier d'Inde, muguet, narcisse, rhubarbe...
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Cuisine_des_fleurs</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cuisine_des_fleurs</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quelques fleurs toxiques interdites à la consommation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arnica, arum, chèvrefeuille, colchique, datura, digitale, euphorbe, genêt, glycine, laurier-rose, marronnier d'Inde, muguet, narcisse, rhubarbe...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cuisine_des_fleurs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuisine_des_fleurs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Médecine par les fleurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines fleurs et plantes médicinales de la pharmacopée traditionnelle sont historiquement reconnues pour leurs vertus médicinales sous le nom de simples médecines / plante médicinale.
 			Fromage de chèvre Satonnay aux fleurs séchées, au foin, bleuets, rose, et badiane
